--- a/Holmes/Evaluation/Reproting/email_send_second_round/snyk_wrong_component_2023_11_17.xlsx
+++ b/Holmes/Evaluation/Reproting/email_send_second_round/snyk_wrong_component_2023_11_17.xlsx
@@ -40,10 +40,10 @@
     <t>CVE-2019-3804</t>
   </si>
   <si>
-    <t>npm__fdse__cockpit</t>
-  </si>
-  <si>
-    <t>unmanaged (c/c++)__fdse__cockpit-project:cockpit</t>
+    <t>npm__split__cockpit</t>
+  </si>
+  <si>
+    <t>unmanaged (c/c++)__split__cockpit-project:cockpit</t>
   </si>
   <si>
     <t>the patch is in https://github.com/cockpit-project/cockpit/commit/c51f6177576d7e12. The new version fixes bug parsing invalid base64 headers, is an npm package</t>
@@ -52,13 +52,13 @@
     <t>CVE-2020-17518</t>
   </si>
   <si>
-    <t>maven__fdse__org.apache.flink:flink-runtime</t>
-  </si>
-  <si>
-    <t>maven__fdse__org.apache.flink:flink-runtime_2.11
-maven__fdse__org.apache.flink:flink-runtime_2.12
-maven__fdse__org.apache.flink:flink-runtime_2.11
-maven__fdse__org.apache.flink:flink-runtime_2.12</t>
+    <t>maven__split__org.apache.flink:flink-runtime</t>
+  </si>
+  <si>
+    <t>maven__split__org.apache.flink:flink-runtime_2.11
+maven__split__org.apache.flink:flink-runtime_2.12
+maven__split__org.apache.flink:flink-runtime_2.11
+maven__split__org.apache.flink:flink-runtime_2.12</t>
   </si>
   <si>
     <t>we find the patch, which modified only the one class: FileUploadHandler, https://github.com/apache/flink/commit/a5264a6f41524afe8ceadf1d8ddc8c80f323ebc4#diff-7920624ff6651ac9897c79309c0a94073a4e7afb111e926c8341492f3a730051</t>
@@ -67,10 +67,10 @@
     <t>CVE-2016-6816</t>
   </si>
   <si>
-    <t>maven__fdse__org.apache.tomcat:tomcat-coyote</t>
-  </si>
-  <si>
-    <t>unmanaged (c/c++)__fdse__tomcat</t>
+    <t>maven__split__org.apache.tomcat:tomcat-coyote</t>
+  </si>
+  <si>
+    <t>unmanaged (c/c++)__split__tomcat</t>
   </si>
   <si>
     <t>The code that parsed the HTTP request line permitted invalid characters in AbstractInputBuffer. https://svn.apache.org/viewvc?view=rev&amp;rev=1767683</t>
@@ -79,15 +79,15 @@
     <t>CVE-2019-1010275</t>
   </si>
   <si>
-    <t>go__fdse__helm.sh:helm:v3</t>
-  </si>
-  <si>
-    <t>go__fdse__helm.sh/helm/cmd/helm
-go__fdse__helm.sh/helm/cmd/tiller
-go__fdse__helm.sh/helm/pkg/tlsutil
-go__fdse__helm.sh/helm/cmd/helm
-go__fdse__helm.sh/helm/cmd/tiller
-go__fdse__helm.sh/helm/pkg/tlsutil</t>
+    <t>go__split__helm.sh:helm:v3</t>
+  </si>
+  <si>
+    <t>go__split__helm.sh/helm/cmd/helm
+go__split__helm.sh/helm/cmd/tiller
+go__split__helm.sh/helm/pkg/tlsutil
+go__split__helm.sh/helm/cmd/helm
+go__split__helm.sh/helm/cmd/tiller
+go__split__helm.sh/helm/pkg/tlsutil</t>
   </si>
   <si>
     <t>The impact of the vulnerability is: Unauthorized clients could connect to the server because self-signed client certs were aloowed.[https://github.com/helm/helm/pull/3152/files]The older version of Tiller allowed a weaker set of certificate checks than we intended. This version requires a client certificate, and then requires that that certificate be signed by a known CA. This works around the situation where a user could provide a self-signedcertificate.</t>
@@ -96,10 +96,10 @@
     <t>CVE-2016-8746</t>
   </si>
   <si>
-    <t>maven__fdse__org.apache.ranger:ranger-plugins-common</t>
-  </si>
-  <si>
-    <t>maven__fdse__org.apache.ranger:ranger</t>
+    <t>maven__split__org.apache.ranger:ranger-plugins-common</t>
+  </si>
+  <si>
+    <t>maven__split__org.apache.ranger:ranger</t>
   </si>
   <si>
     <t>policy engine incorrectly matches paths in certain conditions when policy does not contain wildcards and has recursion flag set to true.[https://github.com/apache/ranger/commit/2fcd7f7cc175c0734443638b99c359e24c0f88ff] the patch fix resource-matcher to correctly handle policy containing only one resource whose value is '*'a</t>
@@ -108,27 +108,27 @@
     <t>CVE-2020-2254</t>
   </si>
   <si>
-    <t>maven__fdse__io.jenkins.blueocean:blueocean-git-pipeline</t>
-  </si>
-  <si>
-    <t>rhel:9__fdse__jenkins-2-plugins
-rhel:7__fdse__openshift-clients-redistributable
-rhel:7__fdse__jenkins-2-plugins
-rhel:8__fdse__jenkins-2-plugins
-rhel:8__fdse__podman
-rhel:8__fdse__openshift-clients
-rhel:8__fdse__openshift-clients-redistributable
-rhel:8__fdse__podman-remote
-rhel:8__fdse__podman-tests
-rhel:8__fdse__podman-docker
-rhel:8__fdse__skopeo
-rhel:8__fdse__skopeo-tests
-rhel:8__fdse__containers-common
-rhel:8__fdse__runc
-rhel:7__fdse__runc
-rhel:7__fdse__openshift-clients
-maven__fdse__io.jenkins.blueocean:blueocean-parent
-maven__fdse__io.jenkins.blueocean:blueocean-parent</t>
+    <t>maven__split__io.jenkins.blueocean:blueocean-git-pipeline</t>
+  </si>
+  <si>
+    <t>rhel:9__split__jenkins-2-plugins
+rhel:7__split__openshift-clients-redistributable
+rhel:7__split__jenkins-2-plugins
+rhel:8__split__jenkins-2-plugins
+rhel:8__split__podman
+rhel:8__split__openshift-clients
+rhel:8__split__openshift-clients-redistributable
+rhel:8__split__podman-remote
+rhel:8__split__podman-tests
+rhel:8__split__podman-docker
+rhel:8__split__skopeo
+rhel:8__split__skopeo-tests
+rhel:8__split__containers-common
+rhel:8__split__runc
+rhel:7__split__runc
+rhel:7__split__openshift-clients
+maven__split__io.jenkins.blueocean:blueocean-parent
+maven__split__io.jenkins.blueocean:blueocean-parent</t>
   </si>
   <si>
     <t>The early version provides an undocumented feature flag that, when enabled, allows an attacker with Job/Configure or Job/Create permission to read arbitrary files on the Jenkins controller file system. The patch in [https://github.com/jenkinsci/blueocean-plugin/commit/e5a6ab76cf6f85f6d476d1960c42414011dcd920]remove this undocumented feature which has security issue.</t>
@@ -1290,7 +1290,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="12" customHeight="1" outlineLevelRow="6" outlineLevelCol="4"/>
